--- a/public/sample-format/roaming-operator-excel.xlsx
+++ b/public/sample-format/roaming-operator-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS233\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp2\htdocs\bl_cms\public\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3D29BC-C0FA-47C4-BDF2-E9144A96FE10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5693FE-7D6B-4A42-9B2D-154AF600D0E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B35BE1C-AA5A-4CD2-933C-CCC4D98FA47E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Country En</t>
   </si>
@@ -48,70 +48,10 @@
     <t>TAP code</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Afghan Wireless Communication</t>
-  </si>
-  <si>
-    <t>AFGAW</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>ALBEM</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Movicel</t>
-  </si>
-  <si>
-    <t>AGOMV</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Cable and Wireless</t>
-  </si>
-  <si>
-    <t>AIACW</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>ARGTM</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>AUTCA</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>T-Mobile</t>
-  </si>
-  <si>
-    <t>NLDDT</t>
-  </si>
-  <si>
-    <t>Vodafone Netherlands</t>
-  </si>
-  <si>
-    <t>NLDLT</t>
-  </si>
-  <si>
-    <t>NLDPN</t>
+    <t>Saudi Arabia</t>
   </si>
 </sst>
 </file>
@@ -478,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ABA055-A0FB-4BA6-9D3E-5AF68D3C18D3}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,149 +458,30 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample-format/roaming-operator-excel.xlsx
+++ b/public/sample-format/roaming-operator-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp2\htdocs\bl_cms\public\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23673842-B2E4-482D-8183-D842F2F03B5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE45F25E-13FF-4BA5-BA24-28AF6891A65A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B35BE1C-AA5A-4CD2-933C-CCC4D98FA47E}"/>
   </bookViews>
@@ -1694,7 +1694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878BF039-E789-487E-BAA7-427DB46C30B7}">
   <dimension ref="A1:E3005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
